--- a/Hardware/Brochage ESP32.xlsx
+++ b/Hardware/Brochage ESP32.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alixa\Google Drive\Personnel\Electronique\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alixa\github\Xila Embedded\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCF86BD-E9D9-4ADD-9B4B-866C4F6F53E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00426350-9CCE-49AB-9E38-F1DF5EB306E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$R$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle2!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="231">
   <si>
     <t>ADC</t>
   </si>
@@ -698,6 +698,30 @@
   </si>
   <si>
     <t>Battery</t>
+  </si>
+  <si>
+    <t>W32-SC01</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>SD CLK</t>
+  </si>
+  <si>
+    <t>SD MISO</t>
+  </si>
+  <si>
+    <t>SD MOSI</t>
+  </si>
+  <si>
+    <t>SD CS</t>
   </si>
 </sst>
 </file>
@@ -850,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -865,9 +889,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,6 +938,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="A23:R23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,8 +1285,8 @@
     <col min="16" max="16" width="14.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="25" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -1318,1472 +1346,1506 @@
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
+      <c r="S1" s="26" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="21"/>
-      <c r="S2" s="10"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>35</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="23" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="13" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="18" t="s">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="11"/>
+      <c r="S4" s="24" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>34</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="S5" s="11"/>
+      <c r="S5" s="23" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="11"/>
+      <c r="S6" s="24"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="15" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="20" t="s">
+      <c r="Q7" s="8"/>
+      <c r="R7" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S7" s="11"/>
+      <c r="S7" s="24" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="22" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S8" s="11"/>
+      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9" t="s">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="22" t="s">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S9" s="11"/>
+      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="22" t="s">
+      <c r="Q10" s="8"/>
+      <c r="R10" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S10" s="11"/>
+      <c r="S10" s="24"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="22" t="s">
+      <c r="Q11" s="8"/>
+      <c r="R11" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="S11" s="24"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9" t="s">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="22" t="s">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S12" s="11"/>
+      <c r="S12" s="24"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="22" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="13" t="s">
+      <c r="Q14" s="8"/>
+      <c r="R14" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S14" s="11"/>
+      <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="13" t="s">
+      <c r="Q15" s="8"/>
+      <c r="R15" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S15" s="11"/>
+      <c r="S15" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="M16" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="13" t="s">
+      <c r="Q16" s="8"/>
+      <c r="R16" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="16" t="s">
+      <c r="M17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="13" t="s">
+      <c r="Q17" s="8"/>
+      <c r="R17" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S17" s="11"/>
+      <c r="S17" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>27</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="19" t="s">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="11"/>
+      <c r="S18" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>28</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="19" t="s">
+      <c r="Q19" s="8"/>
+      <c r="R19" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="S19" s="11"/>
+      <c r="S19" s="24" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="15" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="20" t="s">
+      <c r="Q20" s="8"/>
+      <c r="R20" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S20" s="11"/>
+      <c r="S20" s="24" t="s">
+        <v>226</v>
+      </c>
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>31</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="20" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S21" s="11"/>
+      <c r="S21" s="24" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>33</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="15" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9" t="s">
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="20" t="s">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S22" s="11"/>
+      <c r="S22" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>36</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9" t="s">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="21" t="s">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="S23" s="11"/>
+      <c r="S23" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>37</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="15" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="15" t="s">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="S24" s="11"/>
+      <c r="S24" s="24" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="23" t="s">
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="S25" s="11"/>
+      <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>11</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="23" t="s">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="S26" s="11"/>
+      <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>12</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="21" t="s">
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="11"/>
+      <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>8</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="R28" s="21" t="s">
+      <c r="R28" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="S28" s="11"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>9</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9" t="s">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8" t="s">
         <v>164</v>
       </c>
       <c r="R29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="S29" s="11"/>
+      <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>6</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="S30" s="11"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>7</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S31" s="11"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>4</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9" t="s">
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="S32" s="11"/>
+      <c r="S32" s="24" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>5</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9" t="s">
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="11"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="24" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>1</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="11"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>2</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="24"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>3</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="24"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>15</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="11"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="24"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>32</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="11"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="24"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F44" s="5"/>
@@ -2809,13 +2871,9 @@
       <c r="F50" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R40" xr:uid="{9BFE1313-C953-4083-826E-2574EE902CA9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R40">
-      <sortCondition ref="D1:D40"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q51">
-    <sortCondition ref="A1"/>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S1">
+    <sortCondition ref="S1"/>
   </sortState>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/Hardware/Brochage ESP32.xlsx
+++ b/Hardware/Brochage ESP32.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alixa\github\Xila Embedded\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00426350-9CCE-49AB-9E38-F1DF5EB306E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD030A84-B535-4075-9D04-935EAE17C230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="239">
   <si>
     <t>ADC</t>
   </si>
@@ -703,15 +703,9 @@
     <t>W32-SC01</t>
   </si>
   <si>
-    <t>LCD</t>
-  </si>
-  <si>
     <t>USED</t>
   </si>
   <si>
-    <t>Touch</t>
-  </si>
-  <si>
     <t>SD CLK</t>
   </si>
   <si>
@@ -722,13 +716,43 @@
   </si>
   <si>
     <t>SD CS</t>
+  </si>
+  <si>
+    <t>LCD CLK</t>
+  </si>
+  <si>
+    <t>LCD MOSI</t>
+  </si>
+  <si>
+    <t>LCD MISO</t>
+  </si>
+  <si>
+    <t>LCD DC</t>
+  </si>
+  <si>
+    <t>LCD CS</t>
+  </si>
+  <si>
+    <t>LCD RST</t>
+  </si>
+  <si>
+    <t>TOUCH SDA</t>
+  </si>
+  <si>
+    <t>TOUCH SCL</t>
+  </si>
+  <si>
+    <t>BACKLIGHT PWM</t>
+  </si>
+  <si>
+    <t>NON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,8 +795,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -833,6 +864,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -871,10 +907,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,13 +979,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,7 +1312,7 @@
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,7 +1331,7 @@
     <col min="16" max="16" width="14.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" style="2" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="25" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="26" customWidth="1"/>
     <col min="20" max="20" width="24.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1346,7 +1392,7 @@
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>223</v>
       </c>
     </row>
@@ -1387,7 +1433,6 @@
         <v>72</v>
       </c>
       <c r="R2" s="20"/>
-      <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1469,8 +1514,8 @@
       <c r="R4" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="S4" s="24" t="s">
-        <v>230</v>
+      <c r="S4" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1553,7 +1598,9 @@
       <c r="R6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="24"/>
+      <c r="S6" s="27" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1590,7 +1637,7 @@
       <c r="R7" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="27" t="s">
         <v>227</v>
       </c>
     </row>
@@ -1633,7 +1680,6 @@
       <c r="R8" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -1674,7 +1720,6 @@
       <c r="R9" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -1883,7 +1928,9 @@
       <c r="R14" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="S14" s="24"/>
+      <c r="S14" s="24" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1931,7 +1978,7 @@
         <v>214</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1980,7 +2027,7 @@
         <v>214</v>
       </c>
       <c r="S16" s="24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2029,7 +2076,7 @@
         <v>214</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2068,7 +2115,7 @@
         <v>215</v>
       </c>
       <c r="S18" s="24" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2106,8 +2153,8 @@
       <c r="R19" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="S19" s="24" t="s">
-        <v>229</v>
+      <c r="S19" s="26" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2143,8 +2190,8 @@
       <c r="R20" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S20" s="24" t="s">
-        <v>226</v>
+      <c r="S20" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="T20" s="4"/>
     </row>
@@ -2183,8 +2230,8 @@
       <c r="R21" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S21" s="24" t="s">
-        <v>226</v>
+      <c r="S21" s="27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2221,7 +2268,7 @@
         <v>210</v>
       </c>
       <c r="S22" s="24" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2260,7 +2307,7 @@
         <v>218</v>
       </c>
       <c r="S23" s="24" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2296,8 +2343,8 @@
       <c r="R24" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="S24" s="24" t="s">
-        <v>224</v>
+      <c r="S24" s="27" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2415,7 +2462,9 @@
       <c r="R27" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="24"/>
+      <c r="S27" s="28" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
@@ -2597,7 +2646,7 @@
         <v>213</v>
       </c>
       <c r="S32" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2636,7 +2685,7 @@
       </c>
       <c r="R33" s="8"/>
       <c r="S33" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
